--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A5F1B-94DC-4A88-A09F-941930146776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584113BF-D45B-4589-9323-B41B398696D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A3A2E-2695-4281-89C8-5061D95B2995}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A5F1B-94DC-4A88-A09F-941930146776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42109C6A-2C98-4044-85CD-71195B3685C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -424,12 +425,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -463,9 +470,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,18 +754,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -771,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -785,11 +793,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>1.2210000000000001</v>
       </c>
       <c r="C3" t="s">
@@ -799,12 +807,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7">
-        <v>1.121</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -813,7 +821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -828,11 +836,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <f>250*0.3048/60</f>
         <v>1.27</v>
       </c>
@@ -843,11 +851,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>0.8</v>
       </c>
       <c r="C7" t="s">
@@ -857,11 +865,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <f>812.5*0.3048/60</f>
         <v>4.1275000000000004</v>
       </c>
@@ -872,13 +880,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="7">
-        <f>3000*0.3048</f>
-        <v>914.40000000000009</v>
+        <v>365.8</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -887,11 +894,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>30</v>
       </c>
       <c r="C10" t="s">
@@ -901,7 +908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -916,12 +923,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7">
-        <v>850</v>
+        <f>420+208</f>
+        <v>628</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -930,12 +938,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="7">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -954,16 +962,16 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -977,12 +985,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -991,7 +999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1044,7 +1052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1058,7 +1066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1072,7 +1080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1185,14 +1193,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1221,7 +1229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1236,7 +1244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1250,7 +1258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1264,7 +1272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1278,7 +1286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1306,7 +1314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1320,7 +1328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1335,100 +1343,100 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
     </row>
   </sheetData>
@@ -1444,13 +1452,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584113BF-D45B-4589-9323-B41B398696D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB2502A-AB1A-433D-88F7-FAFFA25B4E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42109C6A-2C98-4044-85CD-71195B3685C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8E1B05-B429-4996-8994-17C7A0681FFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
-    <sheet name="Aircraft parameters" sheetId="3" r:id="rId2"/>
-    <sheet name="Energy storage" sheetId="2" r:id="rId3"/>
-    <sheet name="Misc" sheetId="4" r:id="rId4"/>
+    <sheet name="Miks" sheetId="5" r:id="rId2"/>
+    <sheet name="Aircraft parameters" sheetId="3" r:id="rId3"/>
+    <sheet name="Energy storage" sheetId="2" r:id="rId4"/>
+    <sheet name="Misc" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -753,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -958,6 +959,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F761F0CD-AC69-49FB-B84B-DCD3B04A1EC6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A776EB1-CF70-4180-BDC5-FBCD4C7D05BD}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1185,7 +1200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF07CCF-6284-4C01-9EFE-C5D15F1A8873}">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -1444,7 +1459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A3A2E-2695-4281-89C8-5061D95B2995}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8E1B05-B429-4996-8994-17C7A0681FFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E41A4-D82D-4A83-A7A4-5216C217ADC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
-    <sheet name="Miks" sheetId="5" r:id="rId2"/>
-    <sheet name="Aircraft parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="Energy storage" sheetId="2" r:id="rId4"/>
-    <sheet name="Misc" sheetId="4" r:id="rId5"/>
+    <sheet name="Aircraft parameters" sheetId="3" r:id="rId2"/>
+    <sheet name="Energy storage" sheetId="2" r:id="rId3"/>
+    <sheet name="Misc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -426,18 +425,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -471,7 +464,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -754,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,8 +835,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="8">
-        <f>250*0.3048/60</f>
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -871,8 +863,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <f>812.5*0.3048/60</f>
-        <v>4.1275000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -959,20 +950,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F761F0CD-AC69-49FB-B84B-DCD3B04A1EC6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A776EB1-CF70-4180-BDC5-FBCD4C7D05BD}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1200,7 +1177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF07CCF-6284-4C01-9EFE-C5D15F1A8873}">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -1459,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A3A2E-2695-4281-89C8-5061D95B2995}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8E1B05-B429-4996-8994-17C7A0681FFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287BA133-76FC-4D2C-8697-86B877A4522F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
-    <sheet name="Miks" sheetId="5" r:id="rId2"/>
-    <sheet name="Aircraft parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="Energy storage" sheetId="2" r:id="rId4"/>
-    <sheet name="Misc" sheetId="4" r:id="rId5"/>
+    <sheet name="Aircraft parameters" sheetId="3" r:id="rId2"/>
+    <sheet name="Energy storage" sheetId="2" r:id="rId3"/>
+    <sheet name="Misc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -474,7 +473,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,19 +753,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -780,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -794,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -808,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -822,7 +821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -837,7 +836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -852,7 +851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -866,7 +865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -881,7 +880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -895,7 +894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -909,7 +908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -924,7 +923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -939,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -959,248 +958,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F761F0CD-AC69-49FB-B84B-DCD3B04A1EC6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A776EB1-CF70-4180-BDC5-FBCD4C7D05BD}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7">
+        <f>0.07*3170</f>
+        <v>221.90000000000003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7">
+        <f>0.05*3170</f>
+        <v>158.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A776EB1-CF70-4180-BDC5-FBCD4C7D05BD}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1.26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="7">
-        <f>0.07*3170</f>
-        <v>221.90000000000003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="7">
-        <f>0.05*3170</f>
-        <v>158.5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF07CCF-6284-4C01-9EFE-C5D15F1A8873}">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -1208,14 +1193,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1259,7 +1244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1273,7 +1258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1287,7 +1272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1301,7 +1286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1315,7 +1300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1329,7 +1314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1343,7 +1328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1358,100 +1343,100 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
     </row>
   </sheetData>
@@ -1459,7 +1444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A3A2E-2695-4281-89C8-5061D95B2995}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1467,13 +1452,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1501,7 +1486,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1515,7 +1500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287BA133-76FC-4D2C-8697-86B877A4522F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F99E2-EF97-4688-B93C-5DAD9E1F5035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="85">
   <si>
     <t>Parameter</t>
   </si>
@@ -425,18 +425,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -470,10 +464,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,19 +747,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -779,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -793,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -807,7 +801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -821,7 +815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -836,13 +830,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="8">
-        <f>250*0.3048/60</f>
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -851,7 +844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -865,13 +858,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <f>812.5*0.3048/60</f>
-        <v>4.1275000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -880,7 +872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -894,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -908,7 +900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -923,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -938,7 +930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -961,17 +953,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A776EB1-CF70-4180-BDC5-FBCD4C7D05BD}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -985,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -999,7 +991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1013,7 +1005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1024,7 +1016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1038,7 +1030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1052,7 +1044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1066,7 +1058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1080,7 +1072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1108,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1122,7 +1114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1136,7 +1128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1150,7 +1142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1165,7 +1157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1193,14 +1185,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1229,7 +1221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1244,7 +1236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1258,7 +1250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1272,7 +1264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1286,7 +1278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1300,7 +1292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1314,7 +1306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1328,7 +1320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1343,100 +1335,100 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
     </row>
   </sheetData>
@@ -1452,13 +1444,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1486,7 +1478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1500,7 +1492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F99E2-EF97-4688-B93C-5DAD9E1F5035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0546892F-9B0D-470E-A55B-579B474B8D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>Parameter</t>
   </si>
@@ -467,7 +466,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,19 +746,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -773,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -787,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -801,7 +800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -815,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -830,7 +829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -844,7 +843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -858,12 +857,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -872,7 +871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -886,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -900,7 +899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -915,7 +914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -930,7 +929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -957,13 +956,13 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -977,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -991,7 +990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1185,14 +1184,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1335,100 +1334,100 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
     </row>
   </sheetData>
@@ -1444,13 +1443,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0546892F-9B0D-470E-A55B-579B474B8D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185A453F-20CB-4901-BE5C-BC600E872252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>Parameter</t>
   </si>
@@ -383,6 +383,39 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>MTOW</t>
+  </si>
+  <si>
+    <t>Maximum take-off weight</t>
+  </si>
+  <si>
+    <t>Nprops</t>
+  </si>
+  <si>
+    <t>Amount of VTOL propellers</t>
+  </si>
+  <si>
+    <t>Nblades</t>
+  </si>
+  <si>
+    <t>Amount of blades on the propeller</t>
+  </si>
+  <si>
+    <t>N/m2</t>
+  </si>
+  <si>
+    <t>Selected propeller disk loading</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Aspect ratio</t>
+  </si>
+  <si>
+    <t>DL</t>
   </si>
 </sst>
 </file>
@@ -746,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -950,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A776EB1-CF70-4180-BDC5-FBCD4C7D05BD}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1123,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1169,6 +1202,76 @@
       </c>
       <c r="D15" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16">
+        <v>3353.95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185A453F-20CB-4901-BE5C-BC600E872252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5BA313-E63B-4909-964B-3113E9742201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
     <sheet name="Aircraft parameters" sheetId="3" r:id="rId2"/>
     <sheet name="Energy storage" sheetId="2" r:id="rId3"/>
     <sheet name="Misc" sheetId="4" r:id="rId4"/>
+    <sheet name="Dimensions and Positions" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
   <si>
     <t>Parameter</t>
   </si>
@@ -417,6 +419,144 @@
   <si>
     <t>DL</t>
   </si>
+  <si>
+    <t>Wprop</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Weight of single propeller</t>
+  </si>
+  <si>
+    <t>Rprop</t>
+  </si>
+  <si>
+    <t>Radius of propeller</t>
+  </si>
+  <si>
+    <t>tprop</t>
+  </si>
+  <si>
+    <t>Thickness of propeller</t>
+  </si>
+  <si>
+    <t>pospropx1</t>
+  </si>
+  <si>
+    <t>Position of propeller 1 in x direction measured from its booty to center of rotor</t>
+  </si>
+  <si>
+    <t>pospropy1</t>
+  </si>
+  <si>
+    <t>Position of propeller 1 in y direction measured from its booty to center of rotor</t>
+  </si>
+  <si>
+    <t>pospropx2</t>
+  </si>
+  <si>
+    <t>Position of propeller 2 in x direction measured from its booty to center of rotor</t>
+  </si>
+  <si>
+    <t>pospropy2</t>
+  </si>
+  <si>
+    <t>Position of propeller 2 in y direction measured from its booty to center of rotor</t>
+  </si>
+  <si>
+    <t>Thrustprop</t>
+  </si>
+  <si>
+    <t>Thrust generated by a single propeller</t>
+  </si>
+  <si>
+    <t>bwing</t>
+  </si>
+  <si>
+    <t>Span of wing</t>
+  </si>
+  <si>
+    <t>cwingroot</t>
+  </si>
+  <si>
+    <t>Chord of the wing at root</t>
+  </si>
+  <si>
+    <t>cwingtip</t>
+  </si>
+  <si>
+    <t>Chord of the wing at tip</t>
+  </si>
+  <si>
+    <t>Swing</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Surface area of wing</t>
+  </si>
+  <si>
+    <t>Awing</t>
+  </si>
+  <si>
+    <t>Aspect ratio of wing</t>
+  </si>
+  <si>
+    <t>hwinglet</t>
+  </si>
+  <si>
+    <t>Height of wing tips</t>
+  </si>
+  <si>
+    <t>2,8 m for boeing 737</t>
+  </si>
+  <si>
+    <t>cwinglet</t>
+  </si>
+  <si>
+    <t>Chord of wing tips</t>
+  </si>
+  <si>
+    <t>half of chord of the wing tip</t>
+  </si>
+  <si>
+    <t>posmainlandingx</t>
+  </si>
+  <si>
+    <t>Position of main landing gear in x direction measured from its booty</t>
+  </si>
+  <si>
+    <t>posmainlandingy</t>
+  </si>
+  <si>
+    <t>Position of main landing gear in y direction measured from its booty</t>
+  </si>
+  <si>
+    <t>posnoselandingx</t>
+  </si>
+  <si>
+    <t>Position of nose landing gear in x direction measured from its booty</t>
+  </si>
+  <si>
+    <t>posnoselandingy</t>
+  </si>
+  <si>
+    <t>Position of nose landing gear in y direction measured from its booty</t>
+  </si>
+  <si>
+    <t>widthfus</t>
+  </si>
+  <si>
+    <t>Width of the fuselage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guess based on scaled drawing </t>
+  </si>
+  <si>
+    <t>guess based on scaled drawing</t>
+  </si>
 </sst>
 </file>
 
@@ -425,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +596,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -497,9 +644,13 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,6 +663,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1" descr="Afbeeldingsresultaat voor reference frame aircraft">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC99DC1-CAA9-4998-BA31-D4F7A22D3289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="52129" b="17891"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5920740" y="502920"/>
+          <a:ext cx="2484120" cy="1958340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -779,19 +994,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -805,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -819,7 +1034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -833,7 +1048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -847,7 +1062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -862,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -876,7 +1091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -890,7 +1105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -904,7 +1119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -918,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -932,7 +1147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -947,7 +1162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -962,7 +1177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -985,17 +1200,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A776EB1-CF70-4180-BDC5-FBCD4C7D05BD}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1037,7 +1252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1048,7 +1263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1062,7 +1277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1076,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1090,7 +1305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1104,7 +1319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1132,7 +1347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1146,7 +1361,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1174,7 +1389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1189,7 +1404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1204,7 +1419,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1218,7 +1433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1232,7 +1447,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1246,7 +1461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1260,7 +1475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1287,14 +1502,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1338,7 +1553,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1352,7 +1567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1366,7 +1581,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1380,7 +1595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1394,7 +1609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1408,7 +1623,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1422,7 +1637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1437,100 +1652,100 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
     </row>
   </sheetData>
@@ -1543,16 +1758,16 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1580,7 +1795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1594,7 +1809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1611,4 +1826,329 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98B1321-8063-4252-B5DC-A1E5B451DA54}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <f>2.6*9.80665</f>
+        <v>25.49729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>1.42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>2.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>3.6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>6.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>3.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>11282.39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11">
+        <v>12.56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12">
+        <v>8.9649999999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13">
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>31.53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17">
+        <f>0.5*B13</f>
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21">
+        <v>8.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24">
+        <v>1.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5BA313-E63B-4909-964B-3113E9742201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CA264B-7E23-4FC7-A563-24DEFBFF1D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1833,7 +1833,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,7 +1904,7 @@
         <v>103</v>
       </c>
       <c r="B5">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -1918,7 +1918,7 @@
         <v>105</v>
       </c>
       <c r="B6">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1932,7 +1932,7 @@
         <v>107</v>
       </c>
       <c r="B7">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1946,7 +1946,7 @@
         <v>109</v>
       </c>
       <c r="B8">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1974,7 +1974,8 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>12.56</v>
+        <f>12.56/2</f>
+        <v>6.28</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CA264B-7E23-4FC7-A563-24DEFBFF1D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65D96FF-6DC1-4D79-A5B6-C93099CB88BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
   <si>
     <t>Parameter</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>guess based on scaled drawing</t>
+  </si>
+  <si>
+    <t>Taper</t>
+  </si>
+  <si>
+    <t>Taper ratio of the wing</t>
   </si>
 </sst>
 </file>
@@ -1830,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98B1321-8063-4252-B5DC-A1E5B451DA54}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,7 +1851,7 @@
     <col min="5" max="5" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -2040,111 +2046,125 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>127</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <f>0.5*B13</f>
         <v>1.7929999999999999</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21">
-        <v>8.5</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>138</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1.5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>139</v>
       </c>
     </row>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65D96FF-6DC1-4D79-A5B6-C93099CB88BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64350D2D-21E3-4373-8DAD-3D561478019D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1980,8 +1980,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <f>12.56/2</f>
-        <v>6.28</v>
+        <v>12.56</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64350D2D-21E3-4373-8DAD-3D561478019D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A859EC-8A42-4DF7-86B2-B8ED00C9A740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1836,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98B1321-8063-4252-B5DC-A1E5B451DA54}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1851,7 +1851,7 @@
     <col min="5" max="5" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1975,195 +1975,195 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10">
+        <v>12.56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11">
-        <v>12.56</v>
+        <v>8.9649999999999999</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12">
-        <v>8.9649999999999999</v>
+        <v>3.5859999999999999</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13">
-        <v>3.5859999999999999</v>
+        <v>31.53</v>
       </c>
       <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15">
+        <v>0.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14">
-        <v>31.53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16">
-        <v>0.4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <f>0.5*B12</f>
+        <v>1.7929999999999999</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B18">
-        <f>0.5*B13</f>
-        <v>1.7929999999999999</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B22">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25">
-        <v>1.5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="s">
         <v>139</v>
       </c>
     </row>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CA264B-7E23-4FC7-A563-24DEFBFF1D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A82E8-74C9-48CD-A820-81360A152D87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
   <si>
     <t>Parameter</t>
   </si>
@@ -498,12 +497,6 @@
     <t>Surface area of wing</t>
   </si>
   <si>
-    <t>Awing</t>
-  </si>
-  <si>
-    <t>Aspect ratio of wing</t>
-  </si>
-  <si>
     <t>hwinglet</t>
   </si>
   <si>
@@ -556,6 +549,18 @@
   </si>
   <si>
     <t>guess based on scaled drawing</t>
+  </si>
+  <si>
+    <t>lambdac4</t>
+  </si>
+  <si>
+    <t>Quarter-chord wing sweep</t>
+  </si>
+  <si>
+    <t>taper</t>
+  </si>
+  <si>
+    <t>deg</t>
   </si>
 </sst>
 </file>
@@ -624,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -648,9 +653,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,16 +677,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -706,8 +714,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5920740" y="502920"/>
-          <a:ext cx="2484120" cy="1958340"/>
+          <a:off x="8473440" y="489585"/>
+          <a:ext cx="2434590" cy="1954530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,19 +1002,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1133,7 +1141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1198,19 +1206,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A776EB1-CF70-4180-BDC5-FBCD4C7D05BD}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1263,7 +1271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1291,7 +1299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1319,7 +1327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1361,7 +1369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1461,7 +1469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1487,6 +1495,20 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="7">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1502,14 +1524,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1538,7 +1560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1553,7 +1575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1567,7 +1589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1581,7 +1603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1595,7 +1617,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1609,7 +1631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1623,7 +1645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1637,7 +1659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1652,100 +1674,100 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
     </row>
   </sheetData>
@@ -1758,16 +1780,16 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +1817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1830,22 +1852,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98B1321-8063-4252-B5DC-A1E5B451DA54}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1874,7 +1896,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1888,7 +1910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1899,7 +1921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1913,7 +1935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1927,7 +1949,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -1941,7 +1963,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -1955,7 +1977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -1969,183 +1991,174 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>113</v>
       </c>
-      <c r="B11">
+      <c r="B10">
         <f>12.56/2</f>
         <v>6.28</v>
       </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11">
+        <v>8.9649999999999999</v>
+      </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12">
-        <v>8.9649999999999999</v>
+        <v>3.5859999999999999</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13">
-        <v>3.5859999999999999</v>
+        <v>31.53</v>
       </c>
       <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14">
-        <v>31.53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <f>0.5*B12</f>
+        <v>1.7929999999999999</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17">
-        <f>0.5*B13</f>
-        <v>1.7929999999999999</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18">
+        <v>8.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21">
-        <v>8.5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24">
-        <v>1.5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
